--- a/Code/Results/Cases/Case_6_16/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_16/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.55301729597784</v>
+        <v>12.43971402666084</v>
       </c>
       <c r="C2">
-        <v>11.04139991947633</v>
+        <v>6.577654063529835</v>
       </c>
       <c r="D2">
-        <v>2.602434624597025</v>
+        <v>6.229194932530009</v>
       </c>
       <c r="E2">
-        <v>7.110463798313072</v>
+        <v>9.137969567279084</v>
       </c>
       <c r="F2">
-        <v>40.52787635975528</v>
+        <v>25.38910687065608</v>
       </c>
       <c r="G2">
-        <v>2.116517453945452</v>
+        <v>2.118856437486389</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.189944269649957</v>
+        <v>6.144820987533857</v>
       </c>
       <c r="K2">
-        <v>15.07507080618285</v>
+        <v>10.96018042936465</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>13.01675415941984</v>
+        <v>10.92070708728008</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>30.24612540014186</v>
+        <v>18.64222276893035</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.30538252974164</v>
+        <v>11.62294684151176</v>
       </c>
       <c r="C3">
-        <v>10.2619215087888</v>
+        <v>6.293855888037496</v>
       </c>
       <c r="D3">
-        <v>2.583812548261603</v>
+        <v>5.967711380684531</v>
       </c>
       <c r="E3">
-        <v>7.035565421775046</v>
+        <v>8.926928655050277</v>
       </c>
       <c r="F3">
-        <v>39.19465774734529</v>
+        <v>25.2016030361164</v>
       </c>
       <c r="G3">
-        <v>2.126487899013353</v>
+        <v>2.123980225099606</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.191802303865093</v>
+        <v>6.153510966583812</v>
       </c>
       <c r="K3">
-        <v>14.01439923145127</v>
+        <v>10.33575681378249</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>12.45828186772487</v>
+        <v>10.46410167858247</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>29.3501012941073</v>
+        <v>18.68308695737543</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.50269053598578</v>
+        <v>11.09231783815868</v>
       </c>
       <c r="C4">
-        <v>9.758290782180342</v>
+        <v>6.112759761046143</v>
       </c>
       <c r="D4">
-        <v>2.573323158558906</v>
+        <v>5.803628539253052</v>
       </c>
       <c r="E4">
-        <v>6.993032727271007</v>
+        <v>8.799636465028046</v>
       </c>
       <c r="F4">
-        <v>38.38771114301543</v>
+        <v>25.10562826251558</v>
       </c>
       <c r="G4">
-        <v>2.132754879565755</v>
+        <v>2.127224837672231</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.195495174021415</v>
+        <v>6.161403595324535</v>
       </c>
       <c r="K4">
-        <v>13.32886050108096</v>
+        <v>9.932564926946311</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.11260119250661</v>
+        <v>10.1776271967893</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>28.81149492972617</v>
+        <v>18.72208833176446</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.20278676613742</v>
+        <v>10.86872678139405</v>
       </c>
       <c r="C5">
-        <v>9.546671460359264</v>
+        <v>6.03729947217913</v>
       </c>
       <c r="D5">
-        <v>2.569289866644721</v>
+        <v>5.735972096133849</v>
       </c>
       <c r="E5">
-        <v>6.976557683956221</v>
+        <v>8.74839778741095</v>
       </c>
       <c r="F5">
-        <v>38.06202443946691</v>
+        <v>25.07122131252585</v>
       </c>
       <c r="G5">
-        <v>2.135347390806838</v>
+        <v>2.128572394178653</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.197621262834122</v>
+        <v>6.165248729415513</v>
       </c>
       <c r="K5">
-        <v>13.04075832011352</v>
+        <v>9.763329970009526</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>11.97121501208881</v>
+        <v>10.0595139643804</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>28.59501083699308</v>
+        <v>18.74134881556506</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.1525780863418</v>
+        <v>10.83115460282803</v>
       </c>
       <c r="C6">
-        <v>9.511143943777887</v>
+        <v>6.024670864136817</v>
       </c>
       <c r="D6">
-        <v>2.56863482039144</v>
+        <v>5.724693052208376</v>
       </c>
       <c r="E6">
-        <v>6.973873453109333</v>
+        <v>8.739929644270996</v>
       </c>
       <c r="F6">
-        <v>38.00814155418477</v>
+        <v>25.06578867287493</v>
       </c>
       <c r="G6">
-        <v>2.135780271518679</v>
+        <v>2.128797701964788</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.198011236376592</v>
+        <v>6.165924780979381</v>
       </c>
       <c r="K6">
-        <v>12.99238795112511</v>
+        <v>9.734932478636438</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>11.94771239495889</v>
+        <v>10.03982369412939</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>28.55924813849904</v>
+        <v>18.7447465770999</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.49867351980355</v>
+        <v>11.08933223010322</v>
       </c>
       <c r="C7">
-        <v>9.755462784256103</v>
+        <v>6.111748722598007</v>
       </c>
       <c r="D7">
-        <v>2.57326778252801</v>
+        <v>5.802719168716815</v>
       </c>
       <c r="E7">
-        <v>6.992807083111513</v>
+        <v>8.798942798060549</v>
       </c>
       <c r="F7">
-        <v>38.3833057542663</v>
+        <v>25.10514534950278</v>
       </c>
       <c r="G7">
-        <v>2.132789683748795</v>
+        <v>2.12724290792208</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.195521358327464</v>
+        <v>6.16145292458168</v>
       </c>
       <c r="K7">
-        <v>13.32501059406209</v>
+        <v>9.930302457982416</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.11069625148338</v>
+        <v>10.17603960397223</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>28.80856305891585</v>
+        <v>18.72233462367363</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.13093200702191</v>
+        <v>12.16411923881898</v>
       </c>
       <c r="C8">
-        <v>10.7777731604583</v>
+        <v>6.48125282824894</v>
       </c>
       <c r="D8">
-        <v>2.595819829366181</v>
+        <v>6.13982248656318</v>
       </c>
       <c r="E8">
-        <v>7.08391490960382</v>
+        <v>9.064762902216037</v>
       </c>
       <c r="F8">
-        <v>40.06588709709369</v>
+        <v>25.3204153246916</v>
       </c>
       <c r="G8">
-        <v>2.11992651570685</v>
+        <v>2.120603003049812</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.190042589299707</v>
+        <v>6.147278020858932</v>
       </c>
       <c r="K8">
-        <v>14.7163928640756</v>
+        <v>10.74901021171977</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>12.82486848024248</v>
+        <v>10.76463211892013</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>29.93483202718728</v>
+        <v>18.65334640347974</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.03135854954246</v>
+        <v>14.04220778921548</v>
       </c>
       <c r="C9">
-        <v>12.58838020492263</v>
+        <v>7.149464506227238</v>
       </c>
       <c r="D9">
-        <v>2.647391997531238</v>
+        <v>6.769224629836278</v>
       </c>
       <c r="E9">
-        <v>7.290509361359867</v>
+        <v>9.60165934067307</v>
       </c>
       <c r="F9">
-        <v>43.45001628952979</v>
+        <v>25.89910330803022</v>
       </c>
       <c r="G9">
-        <v>2.095745319394654</v>
+        <v>2.108337705268004</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.200526661728368</v>
+        <v>6.140415856963759</v>
       </c>
       <c r="K9">
-        <v>17.17859322909387</v>
+        <v>12.196165005779</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>14.19690572793345</v>
+        <v>11.86409144783413</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>32.23179026000417</v>
+        <v>18.63436183602392</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.98404505828915</v>
+        <v>15.2845148916815</v>
       </c>
       <c r="C10">
-        <v>13.80695524073933</v>
+        <v>7.603839936198371</v>
       </c>
       <c r="D10">
-        <v>2.689597526913158</v>
+        <v>7.208275127688626</v>
       </c>
       <c r="E10">
-        <v>7.460083865803482</v>
+        <v>10.0024107874697</v>
       </c>
       <c r="F10">
-        <v>45.980846156623</v>
+        <v>26.42530648210658</v>
       </c>
       <c r="G10">
-        <v>2.078449485220471</v>
+        <v>2.099747650640151</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.222622484747983</v>
+        <v>6.149045677210033</v>
       </c>
       <c r="K10">
-        <v>18.83378431677938</v>
+        <v>13.16204077079017</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.4221290441093</v>
+        <v>12.63560711009384</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>33.97075034918491</v>
+        <v>18.6995130331179</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.83590751791484</v>
+        <v>15.82039166047871</v>
       </c>
       <c r="C11">
-        <v>14.33870216851021</v>
+        <v>7.802299351353819</v>
       </c>
       <c r="D11">
-        <v>2.709713185025791</v>
+        <v>7.402286220619092</v>
       </c>
       <c r="E11">
-        <v>7.54127944104266</v>
+        <v>10.18546866503173</v>
       </c>
       <c r="F11">
-        <v>47.1415473021342</v>
+        <v>26.68764981694977</v>
       </c>
       <c r="G11">
-        <v>2.070641313876193</v>
+        <v>2.095922043039562</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.236150119596292</v>
+        <v>6.15614228017576</v>
       </c>
       <c r="K11">
-        <v>19.555463460885</v>
+        <v>13.58033205572407</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.00862951204597</v>
+        <v>13.06521953884429</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>34.77320236281184</v>
+        <v>18.74810221215516</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.15345837650785</v>
+        <v>16.01915750209216</v>
       </c>
       <c r="C12">
-        <v>14.53696340853183</v>
+        <v>7.87624861827811</v>
       </c>
       <c r="D12">
-        <v>2.717461508818146</v>
+        <v>7.474889601618244</v>
       </c>
       <c r="E12">
-        <v>7.572627314398472</v>
+        <v>10.25484994090506</v>
       </c>
       <c r="F12">
-        <v>47.58249304797521</v>
+        <v>26.79036737276155</v>
       </c>
       <c r="G12">
-        <v>2.067689201552894</v>
+        <v>2.094484374982026</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.241804578126214</v>
+        <v>6.159302620867249</v>
       </c>
       <c r="K12">
-        <v>19.82443816904386</v>
+        <v>13.73570681982391</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.22721416297574</v>
+        <v>13.224711909695</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>35.07878133723789</v>
+        <v>18.76937298925156</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.08528831953652</v>
+        <v>15.97653390787904</v>
       </c>
       <c r="C13">
-        <v>14.49439963347378</v>
+        <v>7.860376056038403</v>
       </c>
       <c r="D13">
-        <v>2.715786943796117</v>
+        <v>7.459292197343717</v>
       </c>
       <c r="E13">
-        <v>7.565848948377566</v>
+        <v>10.23990541704541</v>
       </c>
       <c r="F13">
-        <v>47.48746280803775</v>
+        <v>26.76809419631487</v>
       </c>
       <c r="G13">
-        <v>2.068324851528083</v>
+        <v>2.094793526173075</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.240562595127684</v>
+        <v>6.15860067134495</v>
       </c>
       <c r="K13">
-        <v>19.76669812318969</v>
+        <v>13.70237831037694</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.1802916299009</v>
+        <v>13.19050383125383</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>35.01289178760693</v>
+        <v>18.76466193013034</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.86213217599054</v>
+        <v>15.83682731656861</v>
       </c>
       <c r="C14">
-        <v>14.35507445786696</v>
+        <v>7.808407396857555</v>
       </c>
       <c r="D14">
-        <v>2.710348019888194</v>
+        <v>7.408276882258106</v>
       </c>
       <c r="E14">
-        <v>7.543846294204723</v>
+        <v>10.19117572991605</v>
       </c>
       <c r="F14">
-        <v>47.17779521566835</v>
+        <v>26.69603245243528</v>
       </c>
       <c r="G14">
-        <v>2.070398372338077</v>
+        <v>2.095803549357848</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.236604462927099</v>
+        <v>6.156392704195134</v>
       </c>
       <c r="K14">
-        <v>19.57767739711399</v>
+        <v>13.5931753384096</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.02668204598051</v>
+        <v>13.07840486522823</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>34.79830770853299</v>
+        <v>18.74979379468395</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.72479396044171</v>
+        <v>15.75071282612028</v>
       </c>
       <c r="C15">
-        <v>14.26933475481369</v>
+        <v>7.776417978964462</v>
       </c>
       <c r="D15">
-        <v>2.707033573783669</v>
+        <v>7.376914838670667</v>
       </c>
       <c r="E15">
-        <v>7.530447864254638</v>
+        <v>10.16133404701222</v>
       </c>
       <c r="F15">
-        <v>46.98830209560507</v>
+        <v>26.65233391781529</v>
       </c>
       <c r="G15">
-        <v>2.071668947716252</v>
+        <v>2.096423626705239</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.234250252111808</v>
+        <v>6.155102374249064</v>
       </c>
       <c r="K15">
-        <v>19.46134141716671</v>
+        <v>13.52589207531998</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>15.93213927918009</v>
+        <v>13.00932622922223</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>34.66709416588564</v>
+        <v>18.74106486645529</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.92765803559388</v>
+        <v>15.24890942236411</v>
       </c>
       <c r="C16">
-        <v>13.77176212679359</v>
+        <v>7.590702670003421</v>
       </c>
       <c r="D16">
-        <v>2.688301263935662</v>
+        <v>7.195477207039549</v>
       </c>
       <c r="E16">
-        <v>7.45486059300667</v>
+        <v>9.99045855199115</v>
       </c>
       <c r="F16">
-        <v>45.90518432745947</v>
+        <v>26.40863014416696</v>
       </c>
       <c r="G16">
-        <v>2.078960645653747</v>
+        <v>2.099999247595664</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.221811039065674</v>
+        <v>6.148647150185785</v>
       </c>
       <c r="K16">
-        <v>18.78600718031517</v>
+        <v>13.13428073238995</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.38330016855516</v>
+        <v>12.60914883312784</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>33.91854219725898</v>
+        <v>18.69673144001957</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.42945164967413</v>
+        <v>14.93360953270812</v>
       </c>
       <c r="C17">
-        <v>13.46083279391335</v>
+        <v>7.474647403340033</v>
       </c>
       <c r="D17">
-        <v>2.677043340295957</v>
+        <v>7.082674259786772</v>
       </c>
       <c r="E17">
-        <v>7.409540593805302</v>
+        <v>9.88578999054492</v>
       </c>
       <c r="F17">
-        <v>45.24315542202261</v>
+        <v>26.26506148621371</v>
       </c>
       <c r="G17">
-        <v>2.083446529566824</v>
+        <v>2.102213242536438</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.215092174022143</v>
+        <v>6.145511200224451</v>
       </c>
       <c r="K17">
-        <v>18.36382900542803</v>
+        <v>12.88864280694032</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.04018844727332</v>
+        <v>12.41193700378833</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>33.46228047110455</v>
+        <v>18.67449204422452</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.13945435616591</v>
+        <v>14.74950073486205</v>
       </c>
       <c r="C18">
-        <v>13.27985855388537</v>
+        <v>7.407120767207823</v>
       </c>
       <c r="D18">
-        <v>2.670654297958539</v>
+        <v>7.017257020667089</v>
       </c>
       <c r="E18">
-        <v>7.383854216359885</v>
+        <v>9.825660911220947</v>
       </c>
       <c r="F18">
-        <v>44.86325178332331</v>
+        <v>26.1846429512239</v>
       </c>
       <c r="G18">
-        <v>2.086032579643878</v>
+        <v>2.10349444727683</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.211552779336369</v>
+        <v>6.144004895332149</v>
       </c>
       <c r="K18">
-        <v>18.11804720716504</v>
+        <v>12.7453721909656</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>14.84043439480821</v>
+        <v>12.29758273496676</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>33.20091571951506</v>
+        <v>18.66347560495507</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.04066913872475</v>
+        <v>14.68668979186196</v>
       </c>
       <c r="C19">
-        <v>13.21821266175853</v>
+        <v>7.384125005348717</v>
       </c>
       <c r="D19">
-        <v>2.668505928020078</v>
+        <v>6.995017253139521</v>
       </c>
       <c r="E19">
-        <v>7.375222107573196</v>
+        <v>9.805316380628293</v>
       </c>
       <c r="F19">
-        <v>44.73477318605458</v>
+        <v>26.15778305958417</v>
       </c>
       <c r="G19">
-        <v>2.086909295283304</v>
+        <v>2.103929599601645</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.210409312153892</v>
+        <v>6.143545454759282</v>
       </c>
       <c r="K19">
-        <v>18.03431657820956</v>
+        <v>12.6965219105898</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>14.77238368276243</v>
+        <v>12.25870820314859</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>33.11260373086897</v>
+        <v>18.66004605435949</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.48284139661325</v>
+        <v>14.96745870842706</v>
       </c>
       <c r="C20">
-        <v>13.49415178381991</v>
+        <v>7.487082016137533</v>
       </c>
       <c r="D20">
-        <v>2.678232851593353</v>
+        <v>7.09473813222907</v>
       </c>
       <c r="E20">
-        <v>7.414325487383135</v>
+        <v>9.896924887156052</v>
       </c>
       <c r="F20">
-        <v>45.3135384935646</v>
+        <v>26.28012070127084</v>
       </c>
       <c r="G20">
-        <v>2.08296841711795</v>
+        <v>2.101976760056337</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.215773537585567</v>
+        <v>6.145814124538444</v>
       </c>
       <c r="K20">
-        <v>18.40907523384768</v>
+        <v>12.9149968964421</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.07696117614188</v>
+        <v>12.43302665708027</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>33.51073975716407</v>
+        <v>18.67667469596023</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.92781331604977</v>
+        <v>15.87797501073114</v>
       </c>
       <c r="C21">
-        <v>14.39608050505854</v>
+        <v>7.823704618911393</v>
       </c>
       <c r="D21">
-        <v>2.711942009779233</v>
+        <v>7.423285074029453</v>
       </c>
       <c r="E21">
-        <v>7.550292542512082</v>
+        <v>10.20548751002755</v>
       </c>
       <c r="F21">
-        <v>47.26871285486596</v>
+        <v>26.71710663573933</v>
       </c>
       <c r="G21">
-        <v>2.069789235828198</v>
+        <v>2.095506588922156</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.237752359042712</v>
+        <v>6.157028262169437</v>
       </c>
       <c r="K21">
-        <v>19.63331273333523</v>
+        <v>13.62533283294129</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.07189490859206</v>
+        <v>13.11141742876601</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>34.86128907848972</v>
+        <v>18.75408184251724</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.84297552277575</v>
+        <v>16.44883192786836</v>
       </c>
       <c r="C22">
-        <v>14.96755587558671</v>
+        <v>8.036690334213006</v>
       </c>
       <c r="D22">
-        <v>2.734736775055027</v>
+        <v>7.632957142062101</v>
       </c>
       <c r="E22">
-        <v>7.64266791400255</v>
+        <v>10.40748963852406</v>
       </c>
       <c r="F22">
-        <v>48.55485845468393</v>
+        <v>27.022396289977</v>
       </c>
       <c r="G22">
-        <v>2.061200938780247</v>
+        <v>2.091341706928942</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.255233777499798</v>
+        <v>6.167122665922023</v>
       </c>
       <c r="K22">
-        <v>20.40840505666169</v>
+        <v>14.07196677451942</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.701761286333</v>
+        <v>13.56974229378717</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>35.75397834731184</v>
+        <v>18.82147457560197</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.35713423194195</v>
+        <v>16.14635433091915</v>
       </c>
       <c r="C23">
-        <v>14.66414126033133</v>
+        <v>7.923662475531162</v>
       </c>
       <c r="D23">
-        <v>2.722500820415941</v>
+        <v>7.521525410294783</v>
       </c>
       <c r="E23">
-        <v>7.593037263581398</v>
+        <v>10.29966060423842</v>
       </c>
       <c r="F23">
-        <v>47.8676151718924</v>
+        <v>26.85763359724352</v>
       </c>
       <c r="G23">
-        <v>2.065783805528488</v>
+        <v>2.093559025254005</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.245607059418166</v>
+        <v>6.161476312955206</v>
       </c>
       <c r="K23">
-        <v>19.99694560379593</v>
+        <v>13.83519639151028</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.36740113162755</v>
+        <v>13.32681563924949</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>35.27657821823475</v>
+        <v>18.78392015849723</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.4587150327253</v>
+        <v>14.95216434155796</v>
       </c>
       <c r="C24">
-        <v>13.47909518441263</v>
+        <v>7.481462833373088</v>
       </c>
       <c r="D24">
-        <v>2.677694814033497</v>
+        <v>7.089285813026777</v>
       </c>
       <c r="E24">
-        <v>7.412161089890016</v>
+        <v>9.891890652632032</v>
       </c>
       <c r="F24">
-        <v>45.28171611256536</v>
+        <v>26.27330582911578</v>
       </c>
       <c r="G24">
-        <v>2.083184549489018</v>
+        <v>2.102083647719292</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.215464488273427</v>
+        <v>6.145676249915042</v>
       </c>
       <c r="K24">
-        <v>18.38862897765399</v>
+        <v>12.90308859884346</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.06034400649084</v>
+        <v>12.42349505477971</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>33.48882837130819</v>
+        <v>18.67568241923215</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.27871424099573</v>
+        <v>13.55847275144236</v>
       </c>
       <c r="C25">
-        <v>12.1186901075926</v>
+        <v>6.974987832202467</v>
       </c>
       <c r="D25">
-        <v>2.632672503671543</v>
+        <v>6.602805673321513</v>
       </c>
       <c r="E25">
-        <v>7.23155386173224</v>
+        <v>9.455085685715249</v>
       </c>
       <c r="F25">
-        <v>42.52638282704246</v>
+        <v>25.7251792440251</v>
       </c>
       <c r="G25">
-        <v>2.102191403372848</v>
+        <v>2.111578838436504</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.195274107227605</v>
+        <v>6.139938339463519</v>
       </c>
       <c r="K25">
-        <v>16.54016783979761</v>
+        <v>11.82174713894497</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>13.82955537572009</v>
+        <v>11.5733117502387</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>31.60130886498936</v>
+        <v>18.62620422951471</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_16/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_16/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1211 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.43971402666084</v>
+        <v>12.42177341677628</v>
       </c>
       <c r="C2">
-        <v>6.577654063529835</v>
+        <v>7.970458884072437</v>
       </c>
       <c r="D2">
-        <v>6.229194932530009</v>
+        <v>7.304723735236913</v>
       </c>
       <c r="E2">
-        <v>9.137969567279084</v>
+        <v>9.59579265212272</v>
       </c>
       <c r="F2">
-        <v>25.38910687065608</v>
+        <v>20.75485624612626</v>
       </c>
       <c r="G2">
-        <v>2.118856437486389</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>21.92635841887737</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.924928104276783</v>
       </c>
       <c r="J2">
-        <v>6.144820987533857</v>
+        <v>9.207660387716347</v>
       </c>
       <c r="K2">
-        <v>10.96018042936465</v>
+        <v>14.15901145914536</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.023519575898631</v>
       </c>
       <c r="M2">
-        <v>10.92070708728008</v>
+        <v>11.47974004303592</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>18.64222276893035</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>11.07641491535798</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>14.82217993639147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.62294684151176</v>
+        <v>11.67397539441909</v>
       </c>
       <c r="C3">
-        <v>6.293855888037496</v>
+        <v>7.582208853632132</v>
       </c>
       <c r="D3">
-        <v>5.967711380684531</v>
+        <v>7.015143325812934</v>
       </c>
       <c r="E3">
-        <v>8.926928655050277</v>
+        <v>9.380795897886433</v>
       </c>
       <c r="F3">
-        <v>25.2016030361164</v>
+        <v>20.67232236704355</v>
       </c>
       <c r="G3">
-        <v>2.123980225099606</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>21.92822098629481</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.069579912875666</v>
       </c>
       <c r="J3">
-        <v>6.153510966583812</v>
+        <v>9.289652330303332</v>
       </c>
       <c r="K3">
-        <v>10.33575681378249</v>
+        <v>14.34101052979573</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.036495752972047</v>
       </c>
       <c r="M3">
-        <v>10.46410167858247</v>
+        <v>10.88835983880759</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>18.68308695737543</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>10.57200302343458</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>14.92600251521239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.09231783815868</v>
+        <v>11.18785520234947</v>
       </c>
       <c r="C4">
-        <v>6.112759761046143</v>
+        <v>7.336393789996729</v>
       </c>
       <c r="D4">
-        <v>5.803628539253052</v>
+        <v>6.834771684220637</v>
       </c>
       <c r="E4">
-        <v>8.799636465028046</v>
+        <v>9.251516177353576</v>
       </c>
       <c r="F4">
-        <v>25.10562826251558</v>
+        <v>20.63345919758135</v>
       </c>
       <c r="G4">
-        <v>2.127224837672231</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>21.94491836587929</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.162462912359399</v>
       </c>
       <c r="J4">
-        <v>6.161403595324535</v>
+        <v>9.343260783255735</v>
       </c>
       <c r="K4">
-        <v>9.932564926946311</v>
+        <v>14.45729906841731</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.046819683991508</v>
       </c>
       <c r="M4">
-        <v>10.1776271967893</v>
+        <v>10.50819323218218</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>18.72208833176446</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>10.25305809771433</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>14.99705127091305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.86872678139405</v>
+        <v>10.98037333229575</v>
       </c>
       <c r="C5">
-        <v>6.03729947217913</v>
+        <v>7.24319136171349</v>
       </c>
       <c r="D5">
-        <v>5.735972096133849</v>
+        <v>6.762415839904714</v>
       </c>
       <c r="E5">
-        <v>8.74839778741095</v>
+        <v>9.19990623126068</v>
       </c>
       <c r="F5">
-        <v>25.07122131252585</v>
+        <v>20.61436093849666</v>
       </c>
       <c r="G5">
-        <v>2.128572394178653</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>21.94505113771972</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.204109773960848</v>
       </c>
       <c r="J5">
-        <v>6.165248729415513</v>
+        <v>9.364251116478101</v>
       </c>
       <c r="K5">
-        <v>9.763329970009526</v>
+        <v>14.50174396931778</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.051334260067591</v>
       </c>
       <c r="M5">
-        <v>10.0595139643804</v>
+        <v>10.35070836992492</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>18.74134881556506</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>10.12255455169145</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>15.02359046850389</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.83115460282803</v>
+        <v>10.94228256604842</v>
       </c>
       <c r="C6">
-        <v>6.024670864136817</v>
+        <v>7.23837195466994</v>
       </c>
       <c r="D6">
-        <v>5.724693052208376</v>
+        <v>6.752425552320449</v>
       </c>
       <c r="E6">
-        <v>8.739929644270996</v>
+        <v>9.191777024575467</v>
       </c>
       <c r="F6">
-        <v>25.06578867287493</v>
+        <v>20.60382036116282</v>
       </c>
       <c r="G6">
-        <v>2.128797701964788</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>21.93253488862592</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.214644480870263</v>
       </c>
       <c r="J6">
-        <v>6.165924780979381</v>
+        <v>9.36575472664185</v>
       </c>
       <c r="K6">
-        <v>9.734932478636438</v>
+        <v>14.50422318964946</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.051784057031603</v>
       </c>
       <c r="M6">
-        <v>10.03982369412939</v>
+        <v>10.32630634334249</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>18.7447465770999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>10.10274033975361</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>15.022979739071</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.08933223010322</v>
+        <v>11.17644642417874</v>
       </c>
       <c r="C7">
-        <v>6.111748722598007</v>
+        <v>7.364067684246277</v>
       </c>
       <c r="D7">
-        <v>5.802719168716815</v>
+        <v>6.839322175870592</v>
       </c>
       <c r="E7">
-        <v>8.798942798060549</v>
+        <v>9.251882811537273</v>
       </c>
       <c r="F7">
-        <v>25.10514534950278</v>
+        <v>20.61264286552515</v>
       </c>
       <c r="G7">
-        <v>2.12724290792208</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>21.91008765407981</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.17242909100364</v>
       </c>
       <c r="J7">
-        <v>6.16145292458168</v>
+        <v>9.338003100888582</v>
       </c>
       <c r="K7">
-        <v>9.930302457982416</v>
+        <v>14.44432154459689</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.045967316545761</v>
       </c>
       <c r="M7">
-        <v>10.17603960397223</v>
+        <v>10.51146474168411</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>18.72233462367363</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>10.25661301487573</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>14.98341549087596</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.16411923881898</v>
+        <v>12.15893509165771</v>
       </c>
       <c r="C8">
-        <v>6.48125282824894</v>
+        <v>7.874407563344736</v>
       </c>
       <c r="D8">
-        <v>6.13982248656318</v>
+        <v>7.212415256317597</v>
       </c>
       <c r="E8">
-        <v>9.064762902216037</v>
+        <v>9.522504400268236</v>
       </c>
       <c r="F8">
-        <v>25.3204153246916</v>
+        <v>20.69700437168131</v>
       </c>
       <c r="G8">
-        <v>2.120603003049812</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>21.87787467370576</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.98600201439296</v>
       </c>
       <c r="J8">
-        <v>6.147278020858932</v>
+        <v>9.227943053846742</v>
       </c>
       <c r="K8">
-        <v>10.74901021171977</v>
+        <v>14.20285794336355</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.026304365262822</v>
       </c>
       <c r="M8">
-        <v>10.76463211892013</v>
+        <v>11.28618302295809</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>18.65334640347974</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>10.91108344823732</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>14.83795319861477</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.04220778921548</v>
+        <v>13.88435995935275</v>
       </c>
       <c r="C9">
-        <v>7.149464506227238</v>
+        <v>8.766564994812796</v>
       </c>
       <c r="D9">
-        <v>6.769224629836278</v>
+        <v>7.910014197870148</v>
       </c>
       <c r="E9">
-        <v>9.60165934067307</v>
+        <v>10.07016129241403</v>
       </c>
       <c r="F9">
-        <v>25.89910330803022</v>
+        <v>20.995163957047</v>
       </c>
       <c r="G9">
-        <v>2.108337705268004</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>22.00644268084676</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.636875239428291</v>
       </c>
       <c r="J9">
-        <v>6.140415856963759</v>
+        <v>9.048668965503143</v>
       </c>
       <c r="K9">
-        <v>12.196165005779</v>
+        <v>13.79046262769512</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.008579471978072</v>
       </c>
       <c r="M9">
-        <v>11.86409144783413</v>
+        <v>12.65797656567064</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>18.63436183602392</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>12.10621647665028</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>14.63841314508306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.2845148916815</v>
+        <v>15.01671565011413</v>
       </c>
       <c r="C10">
-        <v>7.603839936198371</v>
+        <v>9.395512118438251</v>
       </c>
       <c r="D10">
-        <v>7.208275127688626</v>
+        <v>8.404584074646827</v>
       </c>
       <c r="E10">
-        <v>10.0024107874697</v>
+        <v>10.48074625974371</v>
       </c>
       <c r="F10">
-        <v>26.42530648210658</v>
+        <v>21.26656882633114</v>
       </c>
       <c r="G10">
-        <v>2.099747650640151</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>22.17167305977054</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.563267541316246</v>
       </c>
       <c r="J10">
-        <v>6.149045677210033</v>
+        <v>8.931691040339897</v>
       </c>
       <c r="K10">
-        <v>13.16204077079017</v>
+        <v>13.50449941413741</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.007574039221867</v>
       </c>
       <c r="M10">
-        <v>12.63560711009384</v>
+        <v>13.5805890676789</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>18.6995130331179</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>13.0558811439707</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>14.52599848268583</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.82039166047871</v>
+        <v>15.49293824504373</v>
       </c>
       <c r="C11">
-        <v>7.802299351353819</v>
+        <v>9.710104484397004</v>
       </c>
       <c r="D11">
-        <v>7.402286220619092</v>
+        <v>8.631372307148682</v>
       </c>
       <c r="E11">
-        <v>10.18546866503173</v>
+        <v>10.6699638907145</v>
       </c>
       <c r="F11">
-        <v>26.68764981694977</v>
+        <v>21.37268384776401</v>
       </c>
       <c r="G11">
-        <v>2.095922043039562</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>22.21323845588322</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.674727178188797</v>
       </c>
       <c r="J11">
-        <v>6.15614228017576</v>
+        <v>8.873567383939456</v>
       </c>
       <c r="K11">
-        <v>13.58033205572407</v>
+        <v>13.35749935741723</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.008554735176213</v>
       </c>
       <c r="M11">
-        <v>13.06521953884429</v>
+        <v>13.98784313104276</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>18.74810221215516</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>13.49127737253252</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>14.46206860863664</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.01915750209216</v>
+        <v>15.67489726999976</v>
       </c>
       <c r="C12">
-        <v>7.87624861827811</v>
+        <v>9.807549166831677</v>
       </c>
       <c r="D12">
-        <v>7.474889601618244</v>
+        <v>8.712538908285779</v>
       </c>
       <c r="E12">
-        <v>10.25484994090506</v>
+        <v>10.74088202320699</v>
       </c>
       <c r="F12">
-        <v>26.79036737276155</v>
+        <v>21.43186104168604</v>
       </c>
       <c r="G12">
-        <v>2.094484374982026</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>22.26123923114947</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.713202311351065</v>
       </c>
       <c r="J12">
-        <v>6.159302620867249</v>
+        <v>8.856946495767367</v>
       </c>
       <c r="K12">
-        <v>13.73570681982391</v>
+        <v>13.3145317655372</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.010114615445408</v>
       </c>
       <c r="M12">
-        <v>13.224711909695</v>
+        <v>14.13542679234888</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>18.76937298925156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>13.64982491114232</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>14.45141264855964</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.97653390787904</v>
+        <v>15.63700934290463</v>
       </c>
       <c r="C13">
-        <v>7.860376056038403</v>
+        <v>9.782605789785906</v>
       </c>
       <c r="D13">
-        <v>7.459292197343717</v>
+        <v>8.694331470080808</v>
       </c>
       <c r="E13">
-        <v>10.23990541704541</v>
+        <v>10.7254453837731</v>
       </c>
       <c r="F13">
-        <v>26.76809419631487</v>
+        <v>21.42239650251968</v>
       </c>
       <c r="G13">
-        <v>2.094793526173075</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>22.25657966050246</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.704178484391715</v>
       </c>
       <c r="J13">
-        <v>6.15860067134495</v>
+        <v>8.861459383905949</v>
       </c>
       <c r="K13">
-        <v>13.70237831037694</v>
+        <v>13.32614139777511</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.009912422719091</v>
       </c>
       <c r="M13">
-        <v>13.19050383125383</v>
+        <v>14.10301672770878</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>18.76466193013034</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>13.61522727992036</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>14.45606104237425</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.83682731656861</v>
+        <v>15.50846878982899</v>
       </c>
       <c r="C14">
-        <v>7.808407396857555</v>
+        <v>9.716430442756103</v>
       </c>
       <c r="D14">
-        <v>7.408276882258106</v>
+        <v>8.637739875857555</v>
       </c>
       <c r="E14">
-        <v>10.19117572991605</v>
+        <v>10.67572856880442</v>
       </c>
       <c r="F14">
-        <v>26.69603245243528</v>
+        <v>21.37894709194624</v>
       </c>
       <c r="G14">
-        <v>2.095803549357848</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>22.21960129596412</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.677568914142529</v>
       </c>
       <c r="J14">
-        <v>6.156392704195134</v>
+        <v>8.872595708774769</v>
       </c>
       <c r="K14">
-        <v>13.5931753384096</v>
+        <v>13.35496306685046</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.008739496578742</v>
       </c>
       <c r="M14">
-        <v>13.07840486522823</v>
+        <v>13.99972047503584</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>18.74979379468395</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>13.50413113661432</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>14.46219041671681</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.75071282612028</v>
+        <v>15.42696580424366</v>
       </c>
       <c r="C15">
-        <v>7.776417978964462</v>
+        <v>9.68374023190195</v>
       </c>
       <c r="D15">
-        <v>7.376914838670667</v>
+        <v>8.604492460899765</v>
       </c>
       <c r="E15">
-        <v>10.16133404701222</v>
+        <v>10.64560345208634</v>
       </c>
       <c r="F15">
-        <v>26.65233391781529</v>
+        <v>21.34593023557908</v>
       </c>
       <c r="G15">
-        <v>2.096423626705239</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>22.18585742678341</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.662847511918774</v>
       </c>
       <c r="J15">
-        <v>6.155102374249064</v>
+        <v>8.877606158549483</v>
       </c>
       <c r="K15">
-        <v>13.52589207531998</v>
+        <v>13.36802613757052</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.007775022014251</v>
       </c>
       <c r="M15">
-        <v>13.00932622922223</v>
+        <v>13.93757861964008</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>18.74106486645529</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>13.43684933108565</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>14.46137182920477</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.24890942236411</v>
+        <v>14.96576901334483</v>
       </c>
       <c r="C16">
-        <v>7.590702670003421</v>
+        <v>9.443427553424726</v>
       </c>
       <c r="D16">
-        <v>7.195477207039549</v>
+        <v>8.402743327940195</v>
       </c>
       <c r="E16">
-        <v>9.99045855199115</v>
+        <v>10.47112126964836</v>
       </c>
       <c r="F16">
-        <v>26.40863014416696</v>
+        <v>21.20330484725297</v>
       </c>
       <c r="G16">
-        <v>2.099999247595664</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>22.07190118789569</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.568331160995591</v>
       </c>
       <c r="J16">
-        <v>6.148647150185785</v>
+        <v>8.919626676179316</v>
       </c>
       <c r="K16">
-        <v>13.13428073238995</v>
+        <v>13.47462572490338</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.005017209264071</v>
       </c>
       <c r="M16">
-        <v>12.60914883312784</v>
+        <v>13.5664188395059</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>18.69673144001957</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>13.03724703727549</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>14.49012012830053</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.93360953270812</v>
+        <v>14.67551037343285</v>
       </c>
       <c r="C17">
-        <v>7.474647403340033</v>
+        <v>9.293778495646929</v>
       </c>
       <c r="D17">
-        <v>7.082674259786772</v>
+        <v>8.277582676730622</v>
       </c>
       <c r="E17">
-        <v>9.88578999054492</v>
+        <v>10.36427877851603</v>
       </c>
       <c r="F17">
-        <v>26.26506148621371</v>
+        <v>21.11963265396357</v>
       </c>
       <c r="G17">
-        <v>2.102213242536438</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>22.00773448300208</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.51011757083752</v>
       </c>
       <c r="J17">
-        <v>6.145511200224451</v>
+        <v>8.946537370612541</v>
       </c>
       <c r="K17">
-        <v>12.88864280694032</v>
+        <v>13.54164811727379</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.004077869881443</v>
       </c>
       <c r="M17">
-        <v>12.41193700378833</v>
+        <v>13.33373400356617</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>18.67449204422452</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>12.78627290130641</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>14.5105074515741</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.74950073486205</v>
+        <v>14.5118649873205</v>
       </c>
       <c r="C18">
-        <v>7.407120767207823</v>
+        <v>9.185539112840058</v>
       </c>
       <c r="D18">
-        <v>7.017257020667089</v>
+        <v>8.201033759116703</v>
       </c>
       <c r="E18">
-        <v>9.825660911220947</v>
+        <v>10.30207566727814</v>
       </c>
       <c r="F18">
-        <v>26.1846429512239</v>
+        <v>21.0901796742028</v>
       </c>
       <c r="G18">
-        <v>2.10349444727683</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>22.00258719648667</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.532799587693564</v>
       </c>
       <c r="J18">
-        <v>6.144004895332149</v>
+        <v>8.967244933667967</v>
       </c>
       <c r="K18">
-        <v>12.7453721909656</v>
+        <v>13.59268987092415</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.004586064346991</v>
       </c>
       <c r="M18">
-        <v>12.29758273496676</v>
+        <v>13.19409008595817</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>18.66347560495507</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>12.63656615110478</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>14.53540855207062</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.68668979186196</v>
+        <v>14.45137652339753</v>
       </c>
       <c r="C19">
-        <v>7.384125005348717</v>
+        <v>9.165185755205478</v>
       </c>
       <c r="D19">
-        <v>6.995017253139521</v>
+        <v>8.178163618973562</v>
       </c>
       <c r="E19">
-        <v>9.805316380628293</v>
+        <v>10.2816800999223</v>
       </c>
       <c r="F19">
-        <v>26.15778305958417</v>
+        <v>21.06712449769324</v>
       </c>
       <c r="G19">
-        <v>2.103929599601645</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>21.97830527278712</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.54983054760866</v>
       </c>
       <c r="J19">
-        <v>6.143545454759282</v>
+        <v>8.97060510236807</v>
       </c>
       <c r="K19">
-        <v>12.6965219105898</v>
+        <v>13.60087967315881</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.004205955465306</v>
       </c>
       <c r="M19">
-        <v>12.25870820314859</v>
+        <v>13.14956312866759</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>18.66004605435949</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>12.58797718536127</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>14.53460264793506</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.96745870842706</v>
+        <v>14.707153269903</v>
       </c>
       <c r="C20">
-        <v>7.487082016137533</v>
+        <v>9.308133101903826</v>
       </c>
       <c r="D20">
-        <v>7.09473813222907</v>
+        <v>8.290641685530195</v>
       </c>
       <c r="E20">
-        <v>9.896924887156052</v>
+        <v>10.37557778831935</v>
       </c>
       <c r="F20">
-        <v>26.28012070127084</v>
+        <v>21.12974711487696</v>
       </c>
       <c r="G20">
-        <v>2.101976760056337</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>22.0166740406226</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.51592974832249</v>
       </c>
       <c r="J20">
-        <v>6.145814124538444</v>
+        <v>8.944008775958217</v>
       </c>
       <c r="K20">
-        <v>12.9149968964421</v>
+        <v>13.53538778847837</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.004210413238101</v>
       </c>
       <c r="M20">
-        <v>12.43302665708027</v>
+        <v>13.35838313927034</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>18.67667469596023</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>12.81296278707365</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>14.50919097062099</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.87797501073114</v>
+        <v>15.54004258646293</v>
       </c>
       <c r="C21">
-        <v>7.823704618911393</v>
+        <v>9.758497175335963</v>
       </c>
       <c r="D21">
-        <v>7.423285074029453</v>
+        <v>8.658684284257355</v>
       </c>
       <c r="E21">
-        <v>10.20548751002755</v>
+        <v>10.69123281984096</v>
       </c>
       <c r="F21">
-        <v>26.71710663573933</v>
+        <v>21.37271075077298</v>
       </c>
       <c r="G21">
-        <v>2.095506588922156</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>22.19771223978742</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.689949493227337</v>
       </c>
       <c r="J21">
-        <v>6.157028262169437</v>
+        <v>8.863920032304817</v>
       </c>
       <c r="K21">
-        <v>13.62533283294129</v>
+        <v>13.33307460837748</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.008214238187106</v>
       </c>
       <c r="M21">
-        <v>13.11141742876601</v>
+        <v>14.03436201219966</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>18.75408184251724</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>13.54021231425036</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>14.4467690277883</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.44883192786836</v>
+        <v>16.06842610540865</v>
       </c>
       <c r="C22">
-        <v>8.036690334213006</v>
+        <v>10.01683405633365</v>
       </c>
       <c r="D22">
-        <v>7.632957142062101</v>
+        <v>8.888986811723756</v>
       </c>
       <c r="E22">
-        <v>10.40748963852406</v>
+        <v>10.8968084270962</v>
       </c>
       <c r="F22">
-        <v>27.022396289977</v>
+        <v>21.56819473700549</v>
       </c>
       <c r="G22">
-        <v>2.091341706928942</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>22.37673768944508</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.796959134948492</v>
       </c>
       <c r="J22">
-        <v>6.167122665922023</v>
+        <v>8.822242923122985</v>
       </c>
       <c r="K22">
-        <v>14.07196677451942</v>
+        <v>13.2233657287064</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.01443658580745</v>
       </c>
       <c r="M22">
-        <v>13.56974229378717</v>
+        <v>14.45438399121591</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.82147457560197</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>13.99221343004258</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>14.43255311786494</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.14635433091915</v>
+        <v>15.79612032067688</v>
       </c>
       <c r="C23">
-        <v>7.923662475531162</v>
+        <v>9.852629833084277</v>
       </c>
       <c r="D23">
-        <v>7.521525410294783</v>
+        <v>8.761385632083234</v>
       </c>
       <c r="E23">
-        <v>10.29966060423842</v>
+        <v>10.785986805118</v>
       </c>
       <c r="F23">
-        <v>26.85763359724352</v>
+        <v>21.48545487255146</v>
       </c>
       <c r="G23">
-        <v>2.093559025254005</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>22.31866618662014</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.73494588496127</v>
       </c>
       <c r="J23">
-        <v>6.161476312955206</v>
+        <v>8.850623743520154</v>
       </c>
       <c r="K23">
-        <v>13.83519639151028</v>
+        <v>13.29759064286889</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.011913494256373</v>
       </c>
       <c r="M23">
-        <v>13.32681563924949</v>
+        <v>14.22666622380062</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>18.78392015849723</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>13.74869696113958</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>14.45562215271119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.95216434155796</v>
+        <v>14.70541513656098</v>
       </c>
       <c r="C24">
-        <v>7.481462833373088</v>
+        <v>9.256930514680263</v>
       </c>
       <c r="D24">
-        <v>7.089285813026777</v>
+        <v>8.276216036649211</v>
       </c>
       <c r="E24">
-        <v>9.891890652632032</v>
+        <v>10.36870168633837</v>
       </c>
       <c r="F24">
-        <v>26.27330582911578</v>
+        <v>21.16163609687013</v>
       </c>
       <c r="G24">
-        <v>2.102083647719292</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>22.07533522565471</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.504048617235949</v>
       </c>
       <c r="J24">
-        <v>6.145676249915042</v>
+        <v>8.955363588706993</v>
       </c>
       <c r="K24">
-        <v>12.90308859884346</v>
+        <v>13.56349660673712</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.005789547181104</v>
       </c>
       <c r="M24">
-        <v>12.42349505477971</v>
+        <v>13.33889336318545</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>18.67568241923215</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>12.7941935032156</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>14.53558907650558</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.55847275144236</v>
+        <v>13.42755446101175</v>
       </c>
       <c r="C25">
-        <v>6.974987832202467</v>
+        <v>8.578010149783749</v>
       </c>
       <c r="D25">
-        <v>6.602805673321513</v>
+        <v>7.733345912934684</v>
       </c>
       <c r="E25">
-        <v>9.455085685715249</v>
+        <v>9.922174983429798</v>
       </c>
       <c r="F25">
-        <v>25.7251792440251</v>
+        <v>20.86770308426662</v>
       </c>
       <c r="G25">
-        <v>2.111578838436504</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>21.89503156661427</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.745614496805897</v>
       </c>
       <c r="J25">
-        <v>6.139938339463519</v>
+        <v>9.084253031680662</v>
       </c>
       <c r="K25">
-        <v>11.82174713894497</v>
+        <v>13.87342781804104</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.009630701825476</v>
       </c>
       <c r="M25">
-        <v>11.5733117502387</v>
+        <v>12.31067599059119</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>18.62620422951471</v>
+        <v>11.80044779751512</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>14.66032349385158</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_16/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_16/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1205 +421,1355 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.42177341677628</v>
+        <v>12.42504995552429</v>
       </c>
       <c r="C2">
-        <v>7.970458884072437</v>
+        <v>8.017539119864722</v>
       </c>
       <c r="D2">
-        <v>7.304723735236913</v>
+        <v>7.385878269003983</v>
       </c>
       <c r="E2">
-        <v>9.59579265212272</v>
+        <v>9.617278950095473</v>
       </c>
       <c r="F2">
-        <v>20.75485624612626</v>
+        <v>20.36193585962717</v>
       </c>
       <c r="G2">
-        <v>21.92635841887737</v>
+        <v>20.74525304867346</v>
       </c>
       <c r="I2">
-        <v>2.924928104276783</v>
+        <v>2.807129623011564</v>
       </c>
       <c r="J2">
-        <v>9.207660387716347</v>
+        <v>9.382150842027809</v>
       </c>
       <c r="K2">
-        <v>14.15901145914536</v>
+        <v>13.71471859861539</v>
       </c>
       <c r="L2">
-        <v>6.023519575898631</v>
+        <v>11.53055887869585</v>
       </c>
       <c r="M2">
-        <v>11.47974004303592</v>
+        <v>8.719520872610676</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.003895671464401</v>
       </c>
       <c r="O2">
-        <v>11.07641491535798</v>
+        <v>11.54555620640463</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>14.82217993639147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>11.13879249476049</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>14.50477921444927</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.67397539441909</v>
+        <v>11.70881890813116</v>
       </c>
       <c r="C3">
-        <v>7.582208853632132</v>
+        <v>7.533221302733042</v>
       </c>
       <c r="D3">
-        <v>7.015143325812934</v>
+        <v>7.087741303386928</v>
       </c>
       <c r="E3">
-        <v>9.380795897886433</v>
+        <v>9.401646337290966</v>
       </c>
       <c r="F3">
-        <v>20.67232236704355</v>
+        <v>20.30756117986621</v>
       </c>
       <c r="G3">
-        <v>21.92822098629481</v>
+        <v>20.83896432133499</v>
       </c>
       <c r="I3">
-        <v>3.069579912875666</v>
+        <v>2.935252450163857</v>
       </c>
       <c r="J3">
-        <v>9.289652330303332</v>
+        <v>9.432614455222636</v>
       </c>
       <c r="K3">
-        <v>14.34101052979573</v>
+        <v>13.90304941720136</v>
       </c>
       <c r="L3">
-        <v>6.036495752972047</v>
+        <v>11.71487416308672</v>
       </c>
       <c r="M3">
-        <v>10.88835983880759</v>
+        <v>8.855590004969883</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.018397347534245</v>
       </c>
       <c r="O3">
-        <v>10.57200302343458</v>
+        <v>10.94391713534417</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>14.92600251521239</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>10.6212957536688</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>14.62327506905572</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.18785520234947</v>
+        <v>11.24370632475613</v>
       </c>
       <c r="C4">
-        <v>7.336393789996729</v>
+        <v>7.22511872129407</v>
       </c>
       <c r="D4">
-        <v>6.834771684220637</v>
+        <v>6.90217233615847</v>
       </c>
       <c r="E4">
-        <v>9.251516177353576</v>
+        <v>9.27206475452623</v>
       </c>
       <c r="F4">
-        <v>20.63345919758135</v>
+        <v>20.28446488723716</v>
       </c>
       <c r="G4">
-        <v>21.94491836587929</v>
+        <v>20.91299145061522</v>
       </c>
       <c r="I4">
-        <v>3.162462912359399</v>
+        <v>3.017851223566582</v>
       </c>
       <c r="J4">
-        <v>9.343260783255735</v>
+        <v>9.465195483400889</v>
       </c>
       <c r="K4">
-        <v>14.45729906841731</v>
+        <v>14.02207077051175</v>
       </c>
       <c r="L4">
-        <v>6.046819683991508</v>
+        <v>11.83219903286972</v>
       </c>
       <c r="M4">
-        <v>10.50819323218218</v>
+        <v>8.956212007630594</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.029611413908761</v>
       </c>
       <c r="O4">
-        <v>10.25305809771433</v>
+        <v>10.55725899599208</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>14.99705127091305</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>10.29374283467521</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>14.70209901205717</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.98037333229575</v>
+        <v>11.04527229276359</v>
       </c>
       <c r="C5">
-        <v>7.24319136171349</v>
+        <v>7.106288475960899</v>
       </c>
       <c r="D5">
-        <v>6.762415839904714</v>
+        <v>6.827695087704303</v>
       </c>
       <c r="E5">
-        <v>9.19990623126068</v>
+        <v>9.220351894804432</v>
       </c>
       <c r="F5">
-        <v>20.61436093849666</v>
+        <v>20.27149771621389</v>
       </c>
       <c r="G5">
-        <v>21.94505113771972</v>
+        <v>20.93678620150281</v>
       </c>
       <c r="I5">
-        <v>3.204109773960848</v>
+        <v>3.055764472914942</v>
       </c>
       <c r="J5">
-        <v>9.364251116478101</v>
+        <v>9.477202330997169</v>
       </c>
       <c r="K5">
-        <v>14.50174396931778</v>
+        <v>14.06750057207394</v>
       </c>
       <c r="L5">
-        <v>6.051334260067591</v>
+        <v>11.87696639928353</v>
       </c>
       <c r="M5">
-        <v>10.35070836992492</v>
+        <v>8.999673869440548</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.034481818430406</v>
       </c>
       <c r="O5">
-        <v>10.12255455169145</v>
+        <v>10.39707509091805</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>15.02359046850389</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>10.15956812518758</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>14.73159052886089</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.94228256604842</v>
+        <v>11.00878734876202</v>
       </c>
       <c r="C6">
-        <v>7.23837195466994</v>
+        <v>7.097850879922038</v>
       </c>
       <c r="D6">
-        <v>6.752425552320449</v>
+        <v>6.817319632859692</v>
       </c>
       <c r="E6">
-        <v>9.191777024575467</v>
+        <v>9.212201987394518</v>
       </c>
       <c r="F6">
-        <v>20.60382036116282</v>
+        <v>20.26206587718748</v>
       </c>
       <c r="G6">
-        <v>21.93253488862592</v>
+        <v>20.92835950317977</v>
       </c>
       <c r="I6">
-        <v>3.214644480870263</v>
+        <v>3.066327201184686</v>
       </c>
       <c r="J6">
-        <v>9.36575472664185</v>
+        <v>9.477182536275183</v>
       </c>
       <c r="K6">
-        <v>14.50422318964946</v>
+        <v>14.07031292458506</v>
       </c>
       <c r="L6">
-        <v>6.051784057031603</v>
+        <v>11.87948050139819</v>
       </c>
       <c r="M6">
-        <v>10.32630634334249</v>
+        <v>9.005022568617596</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.034995719034804</v>
       </c>
       <c r="O6">
-        <v>10.10274033975361</v>
+        <v>10.37220302235273</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15.022979739071</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>10.13910434741786</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>14.73155713032395</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.17644642417874</v>
+        <v>11.2332426624274</v>
       </c>
       <c r="C7">
-        <v>7.364067684246277</v>
+        <v>7.249817033985409</v>
       </c>
       <c r="D7">
-        <v>6.839322175870592</v>
+        <v>6.910222947657744</v>
       </c>
       <c r="E7">
-        <v>9.251882811537273</v>
+        <v>9.273752298457314</v>
       </c>
       <c r="F7">
-        <v>20.61264286552515</v>
+        <v>20.25248830838209</v>
       </c>
       <c r="G7">
-        <v>21.91008765407981</v>
+        <v>20.94241224157666</v>
       </c>
       <c r="I7">
-        <v>3.17242909100364</v>
+        <v>3.029945544853741</v>
       </c>
       <c r="J7">
-        <v>9.338003100888582</v>
+        <v>9.431749716390119</v>
       </c>
       <c r="K7">
-        <v>14.44432154459689</v>
+        <v>14.00493625758513</v>
       </c>
       <c r="L7">
-        <v>6.045967316545761</v>
+        <v>11.81479567697412</v>
       </c>
       <c r="M7">
-        <v>10.51146474168411</v>
+        <v>8.948300731070907</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.028509970288139</v>
       </c>
       <c r="O7">
-        <v>10.25661301487573</v>
+        <v>10.55925085748729</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14.98341549087596</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>10.29757604301683</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>14.6810005350918</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.15893509165771</v>
+        <v>12.1749682603941</v>
       </c>
       <c r="C8">
-        <v>7.874407563344736</v>
+        <v>7.877354578957379</v>
       </c>
       <c r="D8">
-        <v>7.212415256317597</v>
+        <v>7.301962565707769</v>
       </c>
       <c r="E8">
-        <v>9.522504400268236</v>
+        <v>9.54806767303219</v>
       </c>
       <c r="F8">
-        <v>20.69700437168131</v>
+        <v>20.27654098211162</v>
       </c>
       <c r="G8">
-        <v>21.87787467370576</v>
+        <v>20.94202914995155</v>
       </c>
       <c r="I8">
-        <v>2.98600201439296</v>
+        <v>2.866162073889305</v>
       </c>
       <c r="J8">
-        <v>9.227943053846742</v>
+        <v>9.300648155800552</v>
       </c>
       <c r="K8">
-        <v>14.20285794336355</v>
+        <v>13.74651222256846</v>
       </c>
       <c r="L8">
-        <v>6.026304365262822</v>
+        <v>11.56351006433902</v>
       </c>
       <c r="M8">
-        <v>11.28618302295809</v>
+        <v>8.743344625730009</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.006352164665048</v>
       </c>
       <c r="O8">
-        <v>10.91108344823732</v>
+        <v>11.34478643636013</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14.83795319861477</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>10.97016983172503</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>14.50052484456882</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.88435995935275</v>
+        <v>13.83015718744678</v>
       </c>
       <c r="C9">
-        <v>8.766564994812796</v>
+        <v>8.986177229430123</v>
       </c>
       <c r="D9">
-        <v>7.910014197870148</v>
+        <v>8.022864175473858</v>
       </c>
       <c r="E9">
-        <v>10.07016129241403</v>
+        <v>10.09864151861803</v>
       </c>
       <c r="F9">
-        <v>20.995163957047</v>
+        <v>20.48625146731208</v>
       </c>
       <c r="G9">
-        <v>22.00644268084676</v>
+        <v>20.9080462100571</v>
       </c>
       <c r="I9">
-        <v>2.636875239428291</v>
+        <v>2.555972282147051</v>
       </c>
       <c r="J9">
-        <v>9.048668965503143</v>
+        <v>9.164797590979044</v>
       </c>
       <c r="K9">
-        <v>13.79046262769512</v>
+        <v>13.30671960281564</v>
       </c>
       <c r="L9">
-        <v>6.008579471978072</v>
+        <v>11.14149226470798</v>
       </c>
       <c r="M9">
-        <v>12.65797656567064</v>
+        <v>8.503992871545359</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>5.984313789946452</v>
       </c>
       <c r="O9">
-        <v>12.10621647665028</v>
+        <v>12.74029778508662</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14.63841314508306</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>12.19468450593667</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>14.24966993684014</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.01671565011413</v>
+        <v>14.92078406431597</v>
       </c>
       <c r="C10">
-        <v>9.395512118438251</v>
+        <v>9.737649744240764</v>
       </c>
       <c r="D10">
-        <v>8.404584074646827</v>
+        <v>8.551470559326733</v>
       </c>
       <c r="E10">
-        <v>10.48074625974371</v>
+        <v>10.51856371213219</v>
       </c>
       <c r="F10">
-        <v>21.26656882633114</v>
+        <v>20.6214219008205</v>
       </c>
       <c r="G10">
-        <v>22.17167305977054</v>
+        <v>21.3438608217236</v>
       </c>
       <c r="I10">
-        <v>2.563267541316246</v>
+        <v>2.622136117157684</v>
       </c>
       <c r="J10">
-        <v>8.931691040339897</v>
+        <v>8.918129195775796</v>
       </c>
       <c r="K10">
-        <v>13.50449941413741</v>
+        <v>12.96770175790278</v>
       </c>
       <c r="L10">
-        <v>6.007574039221867</v>
+        <v>10.82946389644991</v>
       </c>
       <c r="M10">
-        <v>13.5805890676789</v>
+        <v>8.390166654674674</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>5.978389666358043</v>
       </c>
       <c r="O10">
-        <v>13.0558811439707</v>
+        <v>13.67340778451858</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14.52599848268583</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>13.13989909805533</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>14.04753916431955</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.49293824504373</v>
+        <v>15.38478714092031</v>
       </c>
       <c r="C11">
-        <v>9.710104484397004</v>
+        <v>10.07136015535811</v>
       </c>
       <c r="D11">
-        <v>8.631372307148682</v>
+        <v>8.823382524765449</v>
       </c>
       <c r="E11">
-        <v>10.6699638907145</v>
+        <v>10.72419358862691</v>
       </c>
       <c r="F11">
-        <v>21.37268384776401</v>
+        <v>20.55109381722767</v>
       </c>
       <c r="G11">
-        <v>22.21323845588322</v>
+        <v>22.19828592422412</v>
       </c>
       <c r="I11">
-        <v>2.674727178188797</v>
+        <v>2.720414031271132</v>
       </c>
       <c r="J11">
-        <v>8.873567383939456</v>
+        <v>8.566263737923464</v>
       </c>
       <c r="K11">
-        <v>13.35749935741723</v>
+        <v>12.75059493952679</v>
       </c>
       <c r="L11">
-        <v>6.008554735176213</v>
+        <v>10.65160097442403</v>
       </c>
       <c r="M11">
-        <v>13.98784313104276</v>
+        <v>8.295644498089054</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>5.974415770629367</v>
       </c>
       <c r="O11">
-        <v>13.49127737253252</v>
+        <v>14.07615327252021</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>14.46206860863664</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>13.581356581307</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>13.86182939104784</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.67489726999976</v>
+        <v>15.5628304601858</v>
       </c>
       <c r="C12">
-        <v>9.807549166831677</v>
+        <v>10.17085184198421</v>
       </c>
       <c r="D12">
-        <v>8.712538908285779</v>
+        <v>8.925187401347237</v>
       </c>
       <c r="E12">
-        <v>10.74088202320699</v>
+        <v>10.80283119137832</v>
       </c>
       <c r="F12">
-        <v>21.43186104168604</v>
+        <v>20.52832321266062</v>
       </c>
       <c r="G12">
-        <v>22.26123923114947</v>
+        <v>22.64793572139921</v>
       </c>
       <c r="I12">
-        <v>2.713202311351065</v>
+        <v>2.752714774845098</v>
       </c>
       <c r="J12">
-        <v>8.856946495767367</v>
+        <v>8.422948129002251</v>
       </c>
       <c r="K12">
-        <v>13.3145317655372</v>
+        <v>12.67358625916989</v>
       </c>
       <c r="L12">
-        <v>6.010114615445408</v>
+        <v>10.58937138274171</v>
       </c>
       <c r="M12">
-        <v>14.13542679234888</v>
+        <v>8.265713985142888</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.973726664290299</v>
       </c>
       <c r="O12">
-        <v>13.64982491114232</v>
+        <v>14.22105319522218</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>14.45141264855964</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>13.74223775835571</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>13.79374929538282</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.63700934290463</v>
+        <v>15.52572581639833</v>
       </c>
       <c r="C13">
-        <v>9.782605789785906</v>
+        <v>10.14550764970912</v>
       </c>
       <c r="D13">
-        <v>8.694331470080808</v>
+        <v>8.902391685782405</v>
       </c>
       <c r="E13">
-        <v>10.7254453837731</v>
+        <v>10.7856667804636</v>
       </c>
       <c r="F13">
-        <v>21.42239650251968</v>
+        <v>20.53705323659351</v>
       </c>
       <c r="G13">
-        <v>22.25657966050246</v>
+        <v>22.55258678904419</v>
       </c>
       <c r="I13">
-        <v>2.704178484391715</v>
+        <v>2.744817482878982</v>
       </c>
       <c r="J13">
-        <v>8.861459383905949</v>
+        <v>8.454732870669476</v>
       </c>
       <c r="K13">
-        <v>13.32614139777511</v>
+        <v>12.69250366237106</v>
       </c>
       <c r="L13">
-        <v>6.009912422719091</v>
+        <v>10.60414852199288</v>
       </c>
       <c r="M13">
-        <v>14.10301672770878</v>
+        <v>8.274282674594346</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.97402137666273</v>
       </c>
       <c r="O13">
-        <v>13.61522727992036</v>
+        <v>14.18927009799834</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>14.45606104237425</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>13.70714331249084</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>13.81109854513109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.50846878982899</v>
+        <v>15.39996904311478</v>
       </c>
       <c r="C14">
-        <v>9.716430442756103</v>
+        <v>10.07787473988752</v>
       </c>
       <c r="D14">
-        <v>8.637739875857555</v>
+        <v>8.831383137643115</v>
       </c>
       <c r="E14">
-        <v>10.67572856880442</v>
+        <v>10.73056398944568</v>
       </c>
       <c r="F14">
-        <v>21.37894709194624</v>
+        <v>20.55086442624294</v>
       </c>
       <c r="G14">
-        <v>22.21960129596412</v>
+        <v>22.23580627694222</v>
       </c>
       <c r="I14">
-        <v>2.677568914142529</v>
+        <v>2.722660734428439</v>
       </c>
       <c r="J14">
-        <v>8.872595708774769</v>
+        <v>8.554924599304242</v>
       </c>
       <c r="K14">
-        <v>13.35496306685046</v>
+        <v>12.74526103262294</v>
       </c>
       <c r="L14">
-        <v>6.008739496578742</v>
+        <v>10.64708049541109</v>
       </c>
       <c r="M14">
-        <v>13.99972047503584</v>
+        <v>8.294082577911437</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.974421239916227</v>
       </c>
       <c r="O14">
-        <v>13.50413113661432</v>
+        <v>14.08783190326121</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>14.46219041671681</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>13.59440487340112</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>13.85738321232131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.42696580424366</v>
+        <v>15.32032544035664</v>
       </c>
       <c r="C15">
-        <v>9.68374023190195</v>
+        <v>10.04404462387303</v>
       </c>
       <c r="D15">
-        <v>8.604492460899765</v>
+        <v>8.789735929348906</v>
       </c>
       <c r="E15">
-        <v>10.64560345208634</v>
+        <v>10.69733188864858</v>
       </c>
       <c r="F15">
-        <v>21.34593023557908</v>
+        <v>20.55121012663748</v>
       </c>
       <c r="G15">
-        <v>22.18585742678341</v>
+        <v>22.04299611823376</v>
       </c>
       <c r="I15">
-        <v>2.662847511918774</v>
+        <v>2.711074633478967</v>
       </c>
       <c r="J15">
-        <v>8.877606158549483</v>
+        <v>8.613643952632579</v>
       </c>
       <c r="K15">
-        <v>13.36802613757052</v>
+        <v>12.77271071156402</v>
       </c>
       <c r="L15">
-        <v>6.007775022014251</v>
+        <v>10.67047806042527</v>
       </c>
       <c r="M15">
-        <v>13.93757861964008</v>
+        <v>8.301920506288276</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.974380092208266</v>
       </c>
       <c r="O15">
-        <v>13.43684933108565</v>
+        <v>14.0266883932146</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>14.46137182920477</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>13.52610539656793</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>13.88002057909944</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.96576901334483</v>
+        <v>14.87114135603959</v>
       </c>
       <c r="C16">
-        <v>9.443427553424726</v>
+        <v>9.78658684743097</v>
       </c>
       <c r="D16">
-        <v>8.402743327940195</v>
+        <v>8.546955096097861</v>
       </c>
       <c r="E16">
-        <v>10.47112126964836</v>
+        <v>10.50803368199358</v>
       </c>
       <c r="F16">
-        <v>21.20330484725297</v>
+        <v>20.56938747291296</v>
       </c>
       <c r="G16">
-        <v>22.07190118789569</v>
+        <v>21.20306344817888</v>
       </c>
       <c r="I16">
-        <v>2.568331160995591</v>
+        <v>2.631358281451916</v>
       </c>
       <c r="J16">
-        <v>8.919626676179316</v>
+        <v>8.924789451673593</v>
       </c>
       <c r="K16">
-        <v>13.47462572490338</v>
+        <v>12.94560932490033</v>
       </c>
       <c r="L16">
-        <v>6.005017209264071</v>
+        <v>10.81690276521393</v>
       </c>
       <c r="M16">
-        <v>13.5664188395059</v>
+        <v>8.364495690010926</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.976165975280266</v>
       </c>
       <c r="O16">
-        <v>13.03724703727549</v>
+        <v>13.65929002234663</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>14.49012012830053</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>13.12075081727462</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>14.02019543822415</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.67551037343285</v>
+        <v>14.58969029297823</v>
       </c>
       <c r="C17">
-        <v>9.293778495646929</v>
+        <v>9.618553337928256</v>
       </c>
       <c r="D17">
-        <v>8.277582676730622</v>
+        <v>8.402778073362963</v>
       </c>
       <c r="E17">
-        <v>10.36427877851603</v>
+        <v>10.39468502950829</v>
       </c>
       <c r="F17">
-        <v>21.11963265396357</v>
+        <v>20.55936067177168</v>
       </c>
       <c r="G17">
-        <v>22.00773448300208</v>
+        <v>20.84835550001196</v>
       </c>
       <c r="I17">
-        <v>2.51011757083752</v>
+        <v>2.581752223359667</v>
       </c>
       <c r="J17">
-        <v>8.946537370612541</v>
+        <v>9.073971942244299</v>
       </c>
       <c r="K17">
-        <v>13.54164811727379</v>
+        <v>13.04258803593218</v>
       </c>
       <c r="L17">
-        <v>6.004077869881443</v>
+        <v>10.90250920134133</v>
       </c>
       <c r="M17">
-        <v>13.33373400356617</v>
+        <v>8.397954284355302</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.977412577881863</v>
       </c>
       <c r="O17">
-        <v>12.78627290130641</v>
+        <v>13.42704588442968</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>14.5105074515741</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>12.86621992212952</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>14.09084514639534</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.5118649873205</v>
+        <v>14.4315069641847</v>
       </c>
       <c r="C18">
-        <v>9.185539112840058</v>
+        <v>9.495868900602638</v>
       </c>
       <c r="D18">
-        <v>8.201033759116703</v>
+        <v>8.317598646462033</v>
       </c>
       <c r="E18">
-        <v>10.30207566727814</v>
+        <v>10.32967620976697</v>
       </c>
       <c r="F18">
-        <v>21.0901796742028</v>
+        <v>20.56295783815815</v>
       </c>
       <c r="G18">
-        <v>22.00258719648667</v>
+        <v>20.72880588140724</v>
       </c>
       <c r="I18">
-        <v>2.532799587693564</v>
+        <v>2.546774808229799</v>
       </c>
       <c r="J18">
-        <v>8.967244933667967</v>
+        <v>9.145814628985713</v>
       </c>
       <c r="K18">
-        <v>13.59268987092415</v>
+        <v>13.10603746145117</v>
       </c>
       <c r="L18">
-        <v>6.004586064346991</v>
+        <v>10.95771611792548</v>
       </c>
       <c r="M18">
-        <v>13.19409008595817</v>
+        <v>8.424936922097288</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.97895029757689</v>
       </c>
       <c r="O18">
-        <v>12.63656615110478</v>
+        <v>13.28698316886127</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>14.53540855207062</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>12.71448682575372</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>14.1377977052011</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.45137652339753</v>
+        <v>14.37305151070499</v>
       </c>
       <c r="C19">
-        <v>9.165185755205478</v>
+        <v>9.470846194247343</v>
       </c>
       <c r="D19">
-        <v>8.178163618973562</v>
+        <v>8.292138864093365</v>
       </c>
       <c r="E19">
-        <v>10.2816800999223</v>
+        <v>10.30847838368955</v>
       </c>
       <c r="F19">
-        <v>21.06712449769324</v>
+        <v>20.54996470835705</v>
       </c>
       <c r="G19">
-        <v>21.97830527278712</v>
+        <v>20.6746933094906</v>
       </c>
       <c r="I19">
-        <v>2.54983054760866</v>
+        <v>2.539513522661736</v>
       </c>
       <c r="J19">
-        <v>8.97060510236807</v>
+        <v>9.163382163576937</v>
       </c>
       <c r="K19">
-        <v>13.60087967315881</v>
+        <v>13.11861898370021</v>
       </c>
       <c r="L19">
-        <v>6.004205955465306</v>
+        <v>10.97019632691338</v>
       </c>
       <c r="M19">
-        <v>13.14956312866759</v>
+        <v>8.426764020966147</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.97889628327996</v>
       </c>
       <c r="O19">
-        <v>12.58797718536127</v>
+        <v>13.24216888269031</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14.53460264793506</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>12.66517983112257</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>14.14380557754258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.707153269903</v>
+        <v>14.62033209135528</v>
       </c>
       <c r="C20">
-        <v>9.308133101903826</v>
+        <v>9.635095643844446</v>
       </c>
       <c r="D20">
-        <v>8.290641685530195</v>
+        <v>8.41763398171028</v>
       </c>
       <c r="E20">
-        <v>10.37557778831935</v>
+        <v>10.40658122594519</v>
       </c>
       <c r="F20">
-        <v>21.12974711487696</v>
+        <v>20.5625215336069</v>
       </c>
       <c r="G20">
-        <v>22.0166740406226</v>
+        <v>20.88264279387058</v>
       </c>
       <c r="I20">
-        <v>2.51592974832249</v>
+        <v>2.586573186221196</v>
       </c>
       <c r="J20">
-        <v>8.944008775958217</v>
+        <v>9.060289238829537</v>
       </c>
       <c r="K20">
-        <v>13.53538778847837</v>
+        <v>13.03344519507701</v>
       </c>
       <c r="L20">
-        <v>6.004210413238101</v>
+        <v>10.89415792442275</v>
       </c>
       <c r="M20">
-        <v>13.35838313927034</v>
+        <v>8.395279507557914</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>5.977333180105735</v>
       </c>
       <c r="O20">
-        <v>12.81296278707365</v>
+        <v>13.45172294223649</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>14.50919097062099</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>12.89329298087326</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>14.08479789105965</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.54004258646293</v>
+        <v>15.43272160873773</v>
       </c>
       <c r="C21">
-        <v>9.758497175335963</v>
+        <v>10.1090322738947</v>
       </c>
       <c r="D21">
-        <v>8.658684284257355</v>
+        <v>8.867194674895169</v>
       </c>
       <c r="E21">
-        <v>10.69123281984096</v>
+        <v>10.75196648964242</v>
       </c>
       <c r="F21">
-        <v>21.37271075077298</v>
+        <v>20.48830646945681</v>
       </c>
       <c r="G21">
-        <v>22.19771223978742</v>
+        <v>22.53954014312747</v>
       </c>
       <c r="I21">
-        <v>2.689949493227337</v>
+        <v>2.7338937996892</v>
       </c>
       <c r="J21">
-        <v>8.863920032304817</v>
+        <v>8.448994032004039</v>
       </c>
       <c r="K21">
-        <v>13.33307460837748</v>
+        <v>12.70176780998284</v>
       </c>
       <c r="L21">
-        <v>6.008214238187106</v>
+        <v>10.61684376359191</v>
       </c>
       <c r="M21">
-        <v>14.03436201219966</v>
+        <v>8.262237985142827</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>5.9725071443422</v>
       </c>
       <c r="O21">
-        <v>13.54021231425036</v>
+        <v>14.1187773581057</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>14.4467690277883</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>13.63110124923931</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>13.80289777651036</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.06842610540865</v>
+        <v>15.94926996795113</v>
       </c>
       <c r="C22">
-        <v>10.01683405633365</v>
+        <v>10.37696396874951</v>
       </c>
       <c r="D22">
-        <v>8.888986811723756</v>
+        <v>9.153353515749156</v>
       </c>
       <c r="E22">
-        <v>10.8968084270962</v>
+        <v>10.97849588348714</v>
       </c>
       <c r="F22">
-        <v>21.56819473700549</v>
+        <v>20.45702230265005</v>
       </c>
       <c r="G22">
-        <v>22.37673768944508</v>
+        <v>23.82576102717318</v>
       </c>
       <c r="I22">
-        <v>2.796959134948492</v>
+        <v>2.822484153440213</v>
       </c>
       <c r="J22">
-        <v>8.822242923122985</v>
+        <v>8.108686810284768</v>
       </c>
       <c r="K22">
-        <v>13.2233657287064</v>
+        <v>12.49554084576924</v>
       </c>
       <c r="L22">
-        <v>6.01443658580745</v>
+        <v>10.45052772724988</v>
       </c>
       <c r="M22">
-        <v>14.45438399121591</v>
+        <v>8.193814846673144</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>5.972428261903789</v>
       </c>
       <c r="O22">
-        <v>13.99221343004258</v>
+        <v>14.53240169873786</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>14.43255311786494</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>14.08981568184418</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>13.62825829866896</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.79612032067688</v>
+        <v>15.681661436376</v>
       </c>
       <c r="C23">
-        <v>9.852629833084277</v>
+        <v>10.21544424129024</v>
       </c>
       <c r="D23">
-        <v>8.761385632083234</v>
+        <v>8.988385519242463</v>
       </c>
       <c r="E23">
-        <v>10.785986805118</v>
+        <v>10.85335219636507</v>
       </c>
       <c r="F23">
-        <v>21.48545487255146</v>
+        <v>20.52429053019165</v>
       </c>
       <c r="G23">
-        <v>22.31866618662014</v>
+        <v>22.99261150311253</v>
       </c>
       <c r="I23">
-        <v>2.73494588496127</v>
+        <v>2.769531674481177</v>
       </c>
       <c r="J23">
-        <v>8.850623743520154</v>
+        <v>8.331743835329251</v>
       </c>
       <c r="K23">
-        <v>13.29759064286889</v>
+        <v>12.63142823553274</v>
       </c>
       <c r="L23">
-        <v>6.011913494256373</v>
+        <v>10.55427398403025</v>
       </c>
       <c r="M23">
-        <v>14.22666622380062</v>
+        <v>8.253905850270964</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>5.97395449945962</v>
       </c>
       <c r="O23">
-        <v>13.74869696113958</v>
+        <v>14.31031664646702</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>14.45562215271119</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>13.84265101555014</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>13.75707574322103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.70541513656098</v>
+        <v>14.61878763124576</v>
       </c>
       <c r="C24">
-        <v>9.256930514680263</v>
+        <v>9.580963854485589</v>
       </c>
       <c r="D24">
-        <v>8.276216036649211</v>
+        <v>8.402526210386203</v>
       </c>
       <c r="E24">
-        <v>10.36870168633837</v>
+        <v>10.39945637796411</v>
       </c>
       <c r="F24">
-        <v>21.16163609687013</v>
+        <v>20.5965699969271</v>
       </c>
       <c r="G24">
-        <v>22.07533522565471</v>
+        <v>20.92940793596192</v>
       </c>
       <c r="I24">
-        <v>2.504048617235949</v>
+        <v>2.5728235498722</v>
       </c>
       <c r="J24">
-        <v>8.955363588706993</v>
+        <v>9.075712181434643</v>
       </c>
       <c r="K24">
-        <v>13.56349660673712</v>
+        <v>13.06051641802932</v>
       </c>
       <c r="L24">
-        <v>6.005789547181104</v>
+        <v>10.9138560614086</v>
       </c>
       <c r="M24">
-        <v>13.33889336318545</v>
+        <v>8.416209377297864</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>5.97897307960359</v>
       </c>
       <c r="O24">
-        <v>12.7941935032156</v>
+        <v>13.43228673366586</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>14.53558907650558</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>12.87442752415756</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>14.11218864010175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.42755446101175</v>
+        <v>13.39060212563373</v>
       </c>
       <c r="C25">
-        <v>8.578010149783749</v>
+        <v>8.749693261145476</v>
       </c>
       <c r="D25">
-        <v>7.733345912934684</v>
+        <v>7.835214637948747</v>
       </c>
       <c r="E25">
-        <v>9.922174983429798</v>
+        <v>9.948008556790757</v>
       </c>
       <c r="F25">
-        <v>20.86770308426662</v>
+        <v>20.4009417751103</v>
       </c>
       <c r="G25">
-        <v>21.89503156661427</v>
+        <v>20.74760225769131</v>
       </c>
       <c r="I25">
-        <v>2.745614496805897</v>
+        <v>2.657002449219016</v>
       </c>
       <c r="J25">
-        <v>9.084253031680662</v>
+        <v>9.229460354449062</v>
       </c>
       <c r="K25">
-        <v>13.87342781804104</v>
+        <v>13.40670500805912</v>
       </c>
       <c r="L25">
-        <v>6.009630701825476</v>
+        <v>11.23946867149078</v>
       </c>
       <c r="M25">
-        <v>12.31067599059119</v>
+        <v>8.54102594906276</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>5.986981276496288</v>
       </c>
       <c r="O25">
-        <v>11.80044779751512</v>
+        <v>12.38819873805658</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>14.66032349385158</v>
+        <v>11.88092481788815</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>14.29869196951158</v>
       </c>
     </row>
   </sheetData>
